--- a/data/trans_orig/Q5419_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>7259</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3627</v>
+        <v>3917</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12069</v>
+        <v>12387</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1078981269244015</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05391158035419937</v>
+        <v>0.05822461697887262</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1793897766778645</v>
+        <v>0.1841228706405668</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -762,19 +762,19 @@
         <v>23277</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16993</v>
+        <v>17486</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30188</v>
+        <v>30470</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1634715857570404</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1193442096949592</v>
+        <v>0.1228009016970591</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2120107221966473</v>
+        <v>0.2139885402159834</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -783,19 +783,19 @@
         <v>30536</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23630</v>
+        <v>22998</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38517</v>
+        <v>38584</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1456394081372904</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1127042183589069</v>
+        <v>0.1096871762194965</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1837075516994111</v>
+        <v>0.1840232910577394</v>
       </c>
     </row>
     <row r="5">
@@ -825,19 +825,19 @@
         <v>6682</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3488</v>
+        <v>3151</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12217</v>
+        <v>11599</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.04692532413389618</v>
+        <v>0.04692532413389617</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02449356049657606</v>
+        <v>0.02212991470088186</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08580057642765569</v>
+        <v>0.08145863698987271</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -846,19 +846,19 @@
         <v>6682</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3450</v>
+        <v>3177</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12112</v>
+        <v>11774</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03186812358533998</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01645703764706351</v>
+        <v>0.01515455021919012</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05776564921537587</v>
+        <v>0.05615681904640792</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>4376</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1646</v>
+        <v>1829</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8829</v>
+        <v>9383</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06503904120413768</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02447256650673632</v>
+        <v>0.02717890138738713</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1312331013031221</v>
+        <v>0.1394691718627534</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -896,19 +896,19 @@
         <v>14936</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9966</v>
+        <v>10018</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21071</v>
+        <v>20709</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1048970752012315</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06998840747842995</v>
+        <v>0.07035863348731959</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1479823494961592</v>
+        <v>0.1454380227598391</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -917,19 +917,19 @@
         <v>19312</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13539</v>
+        <v>13155</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26346</v>
+        <v>26195</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09210759697295222</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06457292340857754</v>
+        <v>0.06274353341458178</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1256550148549498</v>
+        <v>0.1249370805652359</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>8469</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4818</v>
+        <v>4751</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13933</v>
+        <v>14134</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1258789483475333</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07161692613477269</v>
+        <v>0.07062353649125308</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2071011705862075</v>
+        <v>0.2100828446956729</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -967,19 +967,19 @@
         <v>21180</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15614</v>
+        <v>15554</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27791</v>
+        <v>28739</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1487429330731808</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.109659412704791</v>
+        <v>0.1092346080016749</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1951752430607845</v>
+        <v>0.2018333495960523</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -988,19 +988,19 @@
         <v>29648</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22283</v>
+        <v>23012</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37755</v>
+        <v>38271</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1414064338649735</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1062792212751108</v>
+        <v>0.109756298270114</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1800730126575378</v>
+        <v>0.182531045102032</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>47174</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40928</v>
+        <v>39439</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>53086</v>
+        <v>52372</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7011838835239276</v>
+        <v>0.7011838835239277</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6083558201776869</v>
+        <v>0.5862211075840335</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7890725041689695</v>
+        <v>0.7784516624692411</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>142</v>
@@ -1038,19 +1038,19 @@
         <v>76316</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>67446</v>
+        <v>68151</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>85055</v>
+        <v>84948</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5359630818346511</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4736720654896434</v>
+        <v>0.4786190315112936</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5973378633663372</v>
+        <v>0.5965879258932025</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>206</v>
@@ -1059,19 +1059,19 @@
         <v>123489</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>112827</v>
+        <v>112968</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>134667</v>
+        <v>134998</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5889784374394438</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5381230180333196</v>
+        <v>0.5387952859328593</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.642288406833564</v>
+        <v>0.6438697627969224</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>14160</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9467</v>
+        <v>9744</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20893</v>
+        <v>20403</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07066679274517346</v>
+        <v>0.07066679274517348</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04724588596303279</v>
+        <v>0.04862973732920702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1042703227287109</v>
+        <v>0.1018245513822397</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -1184,19 +1184,19 @@
         <v>36585</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29108</v>
+        <v>29488</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44695</v>
+        <v>45814</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1212348795521053</v>
+        <v>0.1212348795521054</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09645819540800074</v>
+        <v>0.09771892980956927</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1481094943037117</v>
+        <v>0.1518177596524582</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>106</v>
@@ -1205,19 +1205,19 @@
         <v>50745</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42140</v>
+        <v>42165</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61808</v>
+        <v>61007</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1010562167320015</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08392096988541094</v>
+        <v>0.08396991916942083</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.123087735090803</v>
+        <v>0.1214933811319037</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>5058</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2399</v>
+        <v>2438</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10282</v>
+        <v>10221</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02524230876407468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01197257262199866</v>
+        <v>0.01216499707452714</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05131326574276836</v>
+        <v>0.05100949586056243</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -1255,19 +1255,19 @@
         <v>9989</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6329</v>
+        <v>5728</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17520</v>
+        <v>17185</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.03310292786162189</v>
+        <v>0.0331029278616219</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02097311905970186</v>
+        <v>0.01898276132930945</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05805780744342633</v>
+        <v>0.05694758131623316</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -1276,19 +1276,19 @@
         <v>15047</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9857</v>
+        <v>10063</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22827</v>
+        <v>22131</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.02996623054237645</v>
+        <v>0.02996623054237644</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01962979789533748</v>
+        <v>0.02003945737764142</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04545859119647592</v>
+        <v>0.04407338458300726</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>8723</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4636</v>
+        <v>4572</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14580</v>
+        <v>14796</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04353117621391281</v>
+        <v>0.04353117621391282</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02313876031237743</v>
+        <v>0.02281634195754308</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07276200537295224</v>
+        <v>0.07384066645718683</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>46</v>
@@ -1326,19 +1326,19 @@
         <v>26953</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20182</v>
+        <v>19677</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35818</v>
+        <v>35770</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08931537032091498</v>
+        <v>0.08931537032091499</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06688078134133625</v>
+        <v>0.06520421004980564</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1186946443402858</v>
+        <v>0.1185362018648135</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>58</v>
@@ -1347,19 +1347,19 @@
         <v>35675</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>26954</v>
+        <v>27119</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>45048</v>
+        <v>45441</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07104566953309045</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05367739338327424</v>
+        <v>0.05400583254822741</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08971231765813228</v>
+        <v>0.09049392593573027</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>11345</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6407</v>
+        <v>7121</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17167</v>
+        <v>17809</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05661930945058913</v>
+        <v>0.05661930945058914</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03197701351111785</v>
+        <v>0.0355380435845672</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08567277032320908</v>
+        <v>0.08887842096599999</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -1397,19 +1397,19 @@
         <v>29247</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22372</v>
+        <v>22239</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36536</v>
+        <v>37819</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0969178208897913</v>
+        <v>0.09691782088979131</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07413675977432561</v>
+        <v>0.07369608649878356</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.121072599555401</v>
+        <v>0.1253245945141481</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -1418,19 +1418,19 @@
         <v>40592</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32401</v>
+        <v>31378</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50652</v>
+        <v>50025</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08083712403470901</v>
+        <v>0.080837124034709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06452451848389118</v>
+        <v>0.06248792752056646</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1008711653015192</v>
+        <v>0.09962383061115279</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>161090</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>150598</v>
+        <v>151243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>169063</v>
+        <v>169101</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8039404128262498</v>
+        <v>0.8039404128262501</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7515829608884139</v>
+        <v>0.754800493362541</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8437314540146593</v>
+        <v>0.8439243688772521</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>369</v>
@@ -1468,19 +1468,19 @@
         <v>198995</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>185733</v>
+        <v>187426</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>209912</v>
+        <v>212349</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6594290013755665</v>
+        <v>0.6594290013755666</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6154829321887036</v>
+        <v>0.6210943479384929</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6956057724600977</v>
+        <v>0.70368361890124</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>599</v>
@@ -1489,19 +1489,19 @@
         <v>360084</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>343552</v>
+        <v>344372</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>374020</v>
+        <v>374983</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7170947591578226</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6841710995069655</v>
+        <v>0.685804670419894</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7448483123676189</v>
+        <v>0.7467644413119812</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>8843</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4819</v>
+        <v>4893</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14475</v>
+        <v>14510</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03856501372087181</v>
+        <v>0.03856501372087182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02101403927086403</v>
+        <v>0.02133758095803493</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06312248617598458</v>
+        <v>0.06327564574306889</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -1614,19 +1614,19 @@
         <v>22233</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16111</v>
+        <v>16298</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29506</v>
+        <v>29341</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.09414916971965953</v>
+        <v>0.09414916971965956</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06822409351386326</v>
+        <v>0.06901805973713268</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1249503765799114</v>
+        <v>0.1242523269973656</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -1635,19 +1635,19 @@
         <v>31076</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23143</v>
+        <v>23470</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40109</v>
+        <v>39786</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06676479178944245</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0497208320921347</v>
+        <v>0.05042341089840741</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08617031224626225</v>
+        <v>0.08547827826820543</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>4199</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1579</v>
+        <v>1732</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8945</v>
+        <v>8516</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01831149278224827</v>
+        <v>0.01831149278224828</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006884514981136548</v>
+        <v>0.007551745945310899</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03900824183252039</v>
+        <v>0.03713505776959228</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -1685,19 +1685,19 @@
         <v>7075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3931</v>
+        <v>3752</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12024</v>
+        <v>11433</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.02995879208870824</v>
+        <v>0.02995879208870825</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01664677162088344</v>
+        <v>0.0158886673038677</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05091992349594818</v>
+        <v>0.04841761679179661</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -1706,19 +1706,19 @@
         <v>11274</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6845</v>
+        <v>6927</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17511</v>
+        <v>17252</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02422057334016034</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01470642893052729</v>
+        <v>0.01488177310155541</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03762077083930297</v>
+        <v>0.03706364640868973</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>6897</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3417</v>
+        <v>3382</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12189</v>
+        <v>12156</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03007860916695928</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01489905375712025</v>
+        <v>0.01474700979845045</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05315584922792223</v>
+        <v>0.05301026428670925</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -1756,19 +1756,19 @@
         <v>21102</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15133</v>
+        <v>15097</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28160</v>
+        <v>28620</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.08936226191286134</v>
+        <v>0.08936226191286135</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06408349074969252</v>
+        <v>0.06393241204815624</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.119250783607323</v>
+        <v>0.121199444888832</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>49</v>
@@ -1777,19 +1777,19 @@
         <v>28000</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>21408</v>
+        <v>20859</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>37092</v>
+        <v>37078</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0601552707711241</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04599265911515393</v>
+        <v>0.04481465634079877</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07968921749548599</v>
+        <v>0.07965898630829393</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>3788</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1684</v>
+        <v>1602</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7574</v>
+        <v>7226</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01651895978379509</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007343547453588105</v>
+        <v>0.006988045499792791</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03302769365023031</v>
+        <v>0.03151135836954804</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -1827,19 +1827,19 @@
         <v>17076</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11796</v>
+        <v>12340</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23346</v>
+        <v>24409</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07231295739021475</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04995389665517445</v>
+        <v>0.05225650569931393</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09886479736618117</v>
+        <v>0.1033654206139458</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -1848,19 +1848,19 @@
         <v>20864</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14817</v>
+        <v>14546</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28272</v>
+        <v>28009</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04482519780769728</v>
+        <v>0.04482519780769727</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03183273747796931</v>
+        <v>0.03125057480471425</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06074041710494417</v>
+        <v>0.06017525513440879</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>205586</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>196568</v>
+        <v>197631</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>212256</v>
+        <v>212566</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8965259245461256</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8572006060362836</v>
+        <v>0.8618359186073515</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9256136407063358</v>
+        <v>0.9269665785606305</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>323</v>
@@ -1898,19 +1898,19 @@
         <v>168657</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>157704</v>
+        <v>157337</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>179046</v>
+        <v>177298</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7142168188885563</v>
+        <v>0.7142168188885561</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6678305584705595</v>
+        <v>0.666277040888157</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7582087283913176</v>
+        <v>0.7508066688392956</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>613</v>
@@ -1919,19 +1919,19 @@
         <v>374243</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>359524</v>
+        <v>360239</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>386127</v>
+        <v>387259</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8040341662915758</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7724099274027233</v>
+        <v>0.773946045711295</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8295652710596845</v>
+        <v>0.8319976454231974</v>
       </c>
     </row>
     <row r="21">
@@ -2023,19 +2023,19 @@
         <v>9854</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5628</v>
+        <v>5118</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17955</v>
+        <v>18896</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04629831947190934</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02644120332356246</v>
+        <v>0.02404490263996011</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08435906334259384</v>
+        <v>0.08877932917387137</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -2044,19 +2044,19 @@
         <v>12469</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7704</v>
+        <v>8038</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18195</v>
+        <v>18422</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0600151575890599</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03708007788819305</v>
+        <v>0.03868521248674892</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08757270495230271</v>
+        <v>0.08866539687551635</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -2065,19 +2065,19 @@
         <v>22324</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15850</v>
+        <v>15524</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31379</v>
+        <v>31408</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05307399390717106</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03768258377011231</v>
+        <v>0.03690714953056098</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07460154495550166</v>
+        <v>0.07467047222097783</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>2991</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>658</v>
+        <v>926</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7650</v>
+        <v>7575</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01405259756466996</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003093459166252894</v>
+        <v>0.004349354636741434</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03594251139721199</v>
+        <v>0.03558973960574863</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2115,19 +2115,19 @@
         <v>7293</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3976</v>
+        <v>4052</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12429</v>
+        <v>12477</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.03509907056227228</v>
+        <v>0.03509907056227227</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01913678170947205</v>
+        <v>0.01950219709726484</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05982222351001446</v>
+        <v>0.06005231525002563</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>17</v>
@@ -2136,19 +2136,19 @@
         <v>10284</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6139</v>
+        <v>5891</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>16208</v>
+        <v>15978</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02444887459472241</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01459500553640987</v>
+        <v>0.014005495451165</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03853434179887102</v>
+        <v>0.03798638637743219</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>4763</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1837</v>
+        <v>1658</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10126</v>
+        <v>10266</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02237702133463349</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.008632684606791298</v>
+        <v>0.007788273042855188</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04757486169707036</v>
+        <v>0.04823421307962601</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -2186,19 +2186,19 @@
         <v>7211</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12398</v>
+        <v>12117</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03470676794682828</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01809362964835006</v>
+        <v>0.01808948721536762</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05967068524834526</v>
+        <v>0.05831946935407906</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -2207,19 +2207,19 @@
         <v>11974</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7281</v>
+        <v>7230</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18874</v>
+        <v>18376</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02846751742418402</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01731083697775137</v>
+        <v>0.01718925496274213</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04487122984098829</v>
+        <v>0.04368855117438442</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>6116</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3143</v>
+        <v>2952</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11755</v>
+        <v>11299</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02873543436417824</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01476781580338878</v>
+        <v>0.01387069070406362</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05522767538627453</v>
+        <v>0.05308379925050209</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2257,19 +2257,19 @@
         <v>13016</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8861</v>
+        <v>7991</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20834</v>
+        <v>19760</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0626477094681024</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04264556016200681</v>
+        <v>0.03846084759204869</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1002750588943511</v>
+        <v>0.0951027929810797</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>34</v>
@@ -2278,19 +2278,19 @@
         <v>19133</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13309</v>
+        <v>13606</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26673</v>
+        <v>28643</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04548700156215536</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0316411027892742</v>
+        <v>0.03234727971920397</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06341350328151925</v>
+        <v>0.06809703940727331</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>189121</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>180692</v>
+        <v>179182</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>196378</v>
+        <v>196528</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.888536627264609</v>
+        <v>0.8885366272646089</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8489336654240913</v>
+        <v>0.8418375871116116</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9226283598987947</v>
+        <v>0.9233355321561135</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>322</v>
@@ -2328,19 +2328,19 @@
         <v>167782</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>158240</v>
+        <v>157936</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>175988</v>
+        <v>176003</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8075312944337372</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7616076709429069</v>
+        <v>0.7601441279769011</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8470271273651572</v>
+        <v>0.8471010235586977</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>592</v>
@@ -2349,19 +2349,19 @@
         <v>356903</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>344530</v>
+        <v>343696</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>367856</v>
+        <v>368369</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8485226125117671</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8191060388727793</v>
+        <v>0.8171245233479145</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8745621212981621</v>
+        <v>0.875781503174514</v>
       </c>
     </row>
     <row r="27">
@@ -2453,19 +2453,19 @@
         <v>40117</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31344</v>
+        <v>31360</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>51853</v>
+        <v>50816</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05651753396451838</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04415872017883091</v>
+        <v>0.04418032397110132</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07305176065168177</v>
+        <v>0.07159045827872486</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>189</v>
@@ -2474,19 +2474,19 @@
         <v>94563</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>82395</v>
+        <v>82282</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>108377</v>
+        <v>109593</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1064819051115831</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09277979483626327</v>
+        <v>0.0926522487086365</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1220363291654168</v>
+        <v>0.1234056710049664</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>255</v>
@@ -2495,19 +2495,19 @@
         <v>134680</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>117941</v>
+        <v>118855</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>152420</v>
+        <v>152599</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08428672658161898</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07381064227700648</v>
+        <v>0.07438272752051397</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09538885075650086</v>
+        <v>0.09550089469971201</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>12248</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7304</v>
+        <v>7456</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19477</v>
+        <v>19206</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01725534171624189</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01029000284463186</v>
+        <v>0.01050488957151442</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02743930720491523</v>
+        <v>0.02705839777186243</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>56</v>
@@ -2545,19 +2545,19 @@
         <v>31038</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23928</v>
+        <v>23394</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41144</v>
+        <v>40619</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03495012697057828</v>
+        <v>0.03495012697057827</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02694381886824199</v>
+        <v>0.02634231752441133</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04632995141837641</v>
+        <v>0.04573886628002907</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>74</v>
@@ -2566,19 +2566,19 @@
         <v>43286</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33917</v>
+        <v>33464</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>53972</v>
+        <v>54382</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02708974748909959</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.021226171529896</v>
+        <v>0.02094295174327328</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03377704483789836</v>
+        <v>0.03403382973905231</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>24758</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18305</v>
+        <v>17808</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>34977</v>
+        <v>33479</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03488035995467591</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02578902034056767</v>
+        <v>0.02508841864803382</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04927700690993385</v>
+        <v>0.04716653855886995</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>123</v>
@@ -2616,19 +2616,19 @@
         <v>70202</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>58883</v>
+        <v>58352</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>83536</v>
+        <v>82693</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.07905005357830322</v>
+        <v>0.07905005357830321</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06630419660235645</v>
+        <v>0.06570625582307352</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09406511020141411</v>
+        <v>0.09311551985061613</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>157</v>
@@ -2637,19 +2637,19 @@
         <v>94961</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>80708</v>
+        <v>79212</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>108989</v>
+        <v>110504</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05942898734483339</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05050925118331128</v>
+        <v>0.04957324859139822</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06820810560218367</v>
+        <v>0.06915635699766484</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>29718</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22364</v>
+        <v>21812</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>39708</v>
+        <v>39414</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04186755676621891</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03150689235418722</v>
+        <v>0.03072867736939252</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05594148516227997</v>
+        <v>0.05552765775456491</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>151</v>
@@ -2687,19 +2687,19 @@
         <v>80519</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>68443</v>
+        <v>68593</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>93832</v>
+        <v>95389</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.09066694670929054</v>
+        <v>0.09066694670929053</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07706966713820736</v>
+        <v>0.07723849521175764</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1056586325275065</v>
+        <v>0.1074112358522455</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>198</v>
@@ -2708,19 +2708,19 @@
         <v>110237</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>95598</v>
+        <v>94991</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>127255</v>
+        <v>126712</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.06898927625984587</v>
+        <v>0.06898927625984588</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0598278497013976</v>
+        <v>0.05944805105362736</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07963949850563944</v>
+        <v>0.07930020320214376</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>602971</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>584624</v>
+        <v>586527</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>616779</v>
+        <v>619397</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8494792075983449</v>
+        <v>0.8494792075983448</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8236327603973679</v>
+        <v>0.826312947029938</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8689326431096929</v>
+        <v>0.8726211316871095</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1156</v>
@@ -2758,19 +2758,19 @@
         <v>611749</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>591803</v>
+        <v>587610</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>631914</v>
+        <v>629558</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6888509676302449</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.666391296243703</v>
+        <v>0.6616696689372388</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7115582522319989</v>
+        <v>0.7089051275195614</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2010</v>
@@ -2779,19 +2779,19 @@
         <v>1214719</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1187435</v>
+        <v>1187732</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1238810</v>
+        <v>1240577</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7602052623246022</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7431303690348126</v>
+        <v>0.7433160607884217</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7752820923067412</v>
+        <v>0.7763879218128322</v>
       </c>
     </row>
     <row r="33">
